--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Bmp2-Eng.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Bmp2-Eng.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.423951666666667</v>
+        <v>2.370286</v>
       </c>
       <c r="H2">
-        <v>16.271855</v>
+        <v>7.110858</v>
       </c>
       <c r="I2">
-        <v>0.4774188439413272</v>
+        <v>0.3026841782318013</v>
       </c>
       <c r="J2">
-        <v>0.4774188439413272</v>
+        <v>0.3026841782318014</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>218.7785543333333</v>
+        <v>218.721583</v>
       </c>
       <c r="N2">
-        <v>656.3356630000001</v>
+        <v>656.164749</v>
       </c>
       <c r="O2">
-        <v>0.7837094150017259</v>
+        <v>0.7793342808141792</v>
       </c>
       <c r="P2">
-        <v>0.7837094150017259</v>
+        <v>0.7793342808141792</v>
       </c>
       <c r="Q2">
-        <v>1186.644304407207</v>
+        <v>518.432706082738</v>
       </c>
       <c r="R2">
-        <v>10679.79873966487</v>
+        <v>4665.894354744642</v>
       </c>
       <c r="S2">
-        <v>0.3741576428960578</v>
+        <v>0.2358921563561117</v>
       </c>
       <c r="T2">
-        <v>0.3741576428960578</v>
+        <v>0.2358921563561118</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.423951666666667</v>
+        <v>2.370286</v>
       </c>
       <c r="H3">
-        <v>16.271855</v>
+        <v>7.110858</v>
       </c>
       <c r="I3">
-        <v>0.4774188439413272</v>
+        <v>0.3026841782318013</v>
       </c>
       <c r="J3">
-        <v>0.4774188439413272</v>
+        <v>0.3026841782318014</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>138.884083</v>
       </c>
       <c r="O3">
-        <v>0.1658370397602197</v>
+        <v>0.164954193449581</v>
       </c>
       <c r="P3">
-        <v>0.1658370397602197</v>
+        <v>0.164954193449581</v>
       </c>
       <c r="Q3">
-        <v>251.1001844871072</v>
+        <v>109.7316658525793</v>
       </c>
       <c r="R3">
-        <v>2259.901660383965</v>
+        <v>987.5849926732141</v>
       </c>
       <c r="S3">
-        <v>0.07917372780497599</v>
+        <v>0.04992902449017601</v>
       </c>
       <c r="T3">
-        <v>0.07917372780497599</v>
+        <v>0.04992902449017602</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.423951666666667</v>
+        <v>2.370286</v>
       </c>
       <c r="H4">
-        <v>16.271855</v>
+        <v>7.110858</v>
       </c>
       <c r="I4">
-        <v>0.4774188439413272</v>
+        <v>0.3026841782318013</v>
       </c>
       <c r="J4">
-        <v>0.4774188439413272</v>
+        <v>0.3026841782318014</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.105616</v>
+        <v>8.515309999999999</v>
       </c>
       <c r="N4">
-        <v>21.316848</v>
+        <v>25.54593</v>
       </c>
       <c r="O4">
-        <v>0.02545376614063513</v>
+        <v>0.03034118948727519</v>
       </c>
       <c r="P4">
-        <v>0.02545376614063513</v>
+        <v>0.03034118948727519</v>
       </c>
       <c r="Q4">
-        <v>38.54051774589333</v>
+        <v>20.18372007866</v>
       </c>
       <c r="R4">
-        <v>346.86465971304</v>
+        <v>181.65348070794</v>
       </c>
       <c r="S4">
-        <v>0.01215210760481492</v>
+        <v>0.00918379800653126</v>
       </c>
       <c r="T4">
-        <v>0.01215210760481492</v>
+        <v>0.009183798006531262</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.423951666666667</v>
+        <v>2.370286</v>
       </c>
       <c r="H5">
-        <v>16.271855</v>
+        <v>7.110858</v>
       </c>
       <c r="I5">
-        <v>0.4774188439413272</v>
+        <v>0.3026841782318013</v>
       </c>
       <c r="J5">
-        <v>0.4774188439413272</v>
+        <v>0.3026841782318014</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.978882</v>
+        <v>7.120231</v>
       </c>
       <c r="N5">
-        <v>20.936646</v>
+        <v>21.360693</v>
       </c>
       <c r="O5">
-        <v>0.02499977909741928</v>
+        <v>0.02537033624896462</v>
       </c>
       <c r="P5">
-        <v>0.02499977909741927</v>
+        <v>0.02537033624896462</v>
       </c>
       <c r="Q5">
-        <v>37.85311865537</v>
+        <v>16.876983856066</v>
       </c>
       <c r="R5">
-        <v>340.67806789833</v>
+        <v>151.892854704594</v>
       </c>
       <c r="S5">
-        <v>0.01193536563547847</v>
+        <v>0.007679199378982338</v>
       </c>
       <c r="T5">
-        <v>0.01193536563547847</v>
+        <v>0.007679199378982338</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>4.750513</v>
       </c>
       <c r="I6">
-        <v>0.1393808158066948</v>
+        <v>0.2022126055089961</v>
       </c>
       <c r="J6">
-        <v>0.1393808158066948</v>
+        <v>0.2022126055089961</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>218.7785543333333</v>
+        <v>218.721583</v>
       </c>
       <c r="N6">
-        <v>656.3356630000001</v>
+        <v>656.164749</v>
       </c>
       <c r="O6">
-        <v>0.7837094150017259</v>
+        <v>0.7793342808141792</v>
       </c>
       <c r="P6">
-        <v>0.7837094150017259</v>
+        <v>0.7793342808141792</v>
       </c>
       <c r="Q6">
-        <v>346.4367888272354</v>
+        <v>346.3465744740263</v>
       </c>
       <c r="R6">
-        <v>3117.931099445119</v>
+        <v>3117.119170266237</v>
       </c>
       <c r="S6">
-        <v>0.1092340576183281</v>
+        <v>0.1575912154859148</v>
       </c>
       <c r="T6">
-        <v>0.1092340576183281</v>
+        <v>0.1575912154859148</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>4.750513</v>
       </c>
       <c r="I7">
-        <v>0.1393808158066948</v>
+        <v>0.2022126055089961</v>
       </c>
       <c r="J7">
-        <v>0.1393808158066948</v>
+        <v>0.2022126055089961</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>138.884083</v>
       </c>
       <c r="O7">
-        <v>0.1658370397602197</v>
+        <v>0.164954193449581</v>
       </c>
       <c r="P7">
-        <v>0.1658370397602197</v>
+        <v>0.164954193449581</v>
       </c>
       <c r="Q7">
         <v>73.30784908717544</v>
@@ -883,10 +883,10 @@
         <v>659.770641784579</v>
       </c>
       <c r="S7">
-        <v>0.0231145018927467</v>
+        <v>0.03335581724707475</v>
       </c>
       <c r="T7">
-        <v>0.02311450189274671</v>
+        <v>0.03335581724707476</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>4.750513</v>
       </c>
       <c r="I8">
-        <v>0.1393808158066948</v>
+        <v>0.2022126055089961</v>
       </c>
       <c r="J8">
-        <v>0.1393808158066948</v>
+        <v>0.2022126055089961</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.105616</v>
+        <v>8.515309999999999</v>
       </c>
       <c r="N8">
-        <v>21.316848</v>
+        <v>25.54593</v>
       </c>
       <c r="O8">
-        <v>0.02545376614063513</v>
+        <v>0.03034118948727519</v>
       </c>
       <c r="P8">
-        <v>0.02545376614063513</v>
+        <v>0.03034118948727519</v>
       </c>
       <c r="Q8">
-        <v>11.25177372700267</v>
+        <v>13.48403028467667</v>
       </c>
       <c r="R8">
-        <v>101.265963543024</v>
+        <v>121.35627256209</v>
       </c>
       <c r="S8">
-        <v>0.00354776669003455</v>
+        <v>0.006135370980464078</v>
       </c>
       <c r="T8">
-        <v>0.003547766690034551</v>
+        <v>0.006135370980464078</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>4.750513</v>
       </c>
       <c r="I9">
-        <v>0.1393808158066948</v>
+        <v>0.2022126055089961</v>
       </c>
       <c r="J9">
-        <v>0.1393808158066948</v>
+        <v>0.2022126055089961</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.978882</v>
+        <v>7.120231</v>
       </c>
       <c r="N9">
-        <v>20.936646</v>
+        <v>21.360693</v>
       </c>
       <c r="O9">
-        <v>0.02499977909741928</v>
+        <v>0.02537033624896462</v>
       </c>
       <c r="P9">
-        <v>0.02499977909741927</v>
+        <v>0.02537033624896462</v>
       </c>
       <c r="Q9">
-        <v>11.051089888822</v>
+        <v>11.27491664283433</v>
       </c>
       <c r="R9">
-        <v>99.45980899939799</v>
+        <v>101.474249785509</v>
       </c>
       <c r="S9">
-        <v>0.003484489605585455</v>
+        <v>0.005130201795542468</v>
       </c>
       <c r="T9">
-        <v>0.003484489605585456</v>
+        <v>0.005130201795542468</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.687463666666666</v>
+        <v>2.286703333333333</v>
       </c>
       <c r="H10">
-        <v>11.062391</v>
+        <v>6.860109999999999</v>
       </c>
       <c r="I10">
-        <v>0.3245723319466</v>
+        <v>0.2920107190904054</v>
       </c>
       <c r="J10">
-        <v>0.3245723319466</v>
+        <v>0.2920107190904054</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>218.7785543333333</v>
+        <v>218.721583</v>
       </c>
       <c r="N10">
-        <v>656.3356630000001</v>
+        <v>656.164749</v>
       </c>
       <c r="O10">
-        <v>0.7837094150017259</v>
+        <v>0.7793342808141792</v>
       </c>
       <c r="P10">
-        <v>0.7837094150017259</v>
+        <v>0.7793342808141792</v>
       </c>
       <c r="Q10">
-        <v>806.7379701500259</v>
+        <v>500.1513729180433</v>
       </c>
       <c r="R10">
-        <v>7260.641731350233</v>
+        <v>4501.36235626239</v>
       </c>
       <c r="S10">
-        <v>0.2543703923956158</v>
+        <v>0.2275739637523524</v>
       </c>
       <c r="T10">
-        <v>0.2543703923956159</v>
+        <v>0.2275739637523524</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.687463666666666</v>
+        <v>2.286703333333333</v>
       </c>
       <c r="H11">
-        <v>11.062391</v>
+        <v>6.860109999999999</v>
       </c>
       <c r="I11">
-        <v>0.3245723319466</v>
+        <v>0.2920107190904054</v>
       </c>
       <c r="J11">
-        <v>0.3245723319466</v>
+        <v>0.2920107190904054</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>138.884083</v>
       </c>
       <c r="O11">
-        <v>0.1658370397602197</v>
+        <v>0.164954193449581</v>
       </c>
       <c r="P11">
-        <v>0.1658370397602197</v>
+        <v>0.164954193449581</v>
       </c>
       <c r="Q11">
-        <v>170.7100033136059</v>
+        <v>105.8622318476811</v>
       </c>
       <c r="R11">
-        <v>1536.390029822453</v>
+        <v>952.7600866291299</v>
       </c>
       <c r="S11">
-        <v>0.05382611471809551</v>
+        <v>0.04816839264618999</v>
       </c>
       <c r="T11">
-        <v>0.05382611471809552</v>
+        <v>0.04816839264618999</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.687463666666666</v>
+        <v>2.286703333333333</v>
       </c>
       <c r="H12">
-        <v>11.062391</v>
+        <v>6.860109999999999</v>
       </c>
       <c r="I12">
-        <v>0.3245723319466</v>
+        <v>0.2920107190904054</v>
       </c>
       <c r="J12">
-        <v>0.3245723319466</v>
+        <v>0.2920107190904054</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.105616</v>
+        <v>8.515309999999999</v>
       </c>
       <c r="N12">
-        <v>21.316848</v>
+        <v>25.54593</v>
       </c>
       <c r="O12">
-        <v>0.02545376614063513</v>
+        <v>0.03034118948727519</v>
       </c>
       <c r="P12">
-        <v>0.02545376614063513</v>
+        <v>0.03034118948727519</v>
       </c>
       <c r="Q12">
-        <v>26.20170082928533</v>
+        <v>19.47198776136666</v>
       </c>
       <c r="R12">
-        <v>235.815307463568</v>
+        <v>175.2478898522999</v>
       </c>
       <c r="S12">
-        <v>0.008261588233089352</v>
+        <v>0.008859952560237479</v>
       </c>
       <c r="T12">
-        <v>0.008261588233089352</v>
+        <v>0.008859952560237477</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.687463666666666</v>
+        <v>2.286703333333333</v>
       </c>
       <c r="H13">
-        <v>11.062391</v>
+        <v>6.860109999999999</v>
       </c>
       <c r="I13">
-        <v>0.3245723319466</v>
+        <v>0.2920107190904054</v>
       </c>
       <c r="J13">
-        <v>0.3245723319466</v>
+        <v>0.2920107190904054</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.978882</v>
+        <v>7.120231</v>
       </c>
       <c r="N13">
-        <v>20.936646</v>
+        <v>21.360693</v>
       </c>
       <c r="O13">
-        <v>0.02499977909741928</v>
+        <v>0.02537033624896462</v>
       </c>
       <c r="P13">
-        <v>0.02499977909741927</v>
+        <v>0.02537033624896462</v>
       </c>
       <c r="Q13">
-        <v>25.734373808954</v>
+        <v>16.28185596180333</v>
       </c>
       <c r="R13">
-        <v>231.609364280586</v>
+        <v>146.53670365623</v>
       </c>
       <c r="S13">
-        <v>0.00811423659979924</v>
+        <v>0.007408410131625539</v>
       </c>
       <c r="T13">
-        <v>0.00811423659979924</v>
+        <v>0.007408410131625538</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.6660723333333334</v>
+        <v>1.590394666666667</v>
       </c>
       <c r="H14">
-        <v>1.998217</v>
+        <v>4.771184</v>
       </c>
       <c r="I14">
-        <v>0.05862800830537804</v>
+        <v>0.2030924971687972</v>
       </c>
       <c r="J14">
-        <v>0.05862800830537804</v>
+        <v>0.2030924971687972</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>218.7785543333333</v>
+        <v>218.721583</v>
       </c>
       <c r="N14">
-        <v>656.3356630000001</v>
+        <v>656.164749</v>
       </c>
       <c r="O14">
-        <v>0.7837094150017259</v>
+        <v>0.7793342808141792</v>
       </c>
       <c r="P14">
-        <v>0.7837094150017259</v>
+        <v>0.7793342808141792</v>
       </c>
       <c r="Q14">
-        <v>145.7223421680968</v>
+        <v>347.8536390880907</v>
       </c>
       <c r="R14">
-        <v>1311.501079512871</v>
+        <v>3130.682751792816</v>
       </c>
       <c r="S14">
-        <v>0.04594732209172415</v>
+        <v>0.1582769452198003</v>
       </c>
       <c r="T14">
-        <v>0.04594732209172415</v>
+        <v>0.1582769452198003</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.6660723333333334</v>
+        <v>1.590394666666667</v>
       </c>
       <c r="H15">
-        <v>1.998217</v>
+        <v>4.771184</v>
       </c>
       <c r="I15">
-        <v>0.05862800830537804</v>
+        <v>0.2030924971687972</v>
       </c>
       <c r="J15">
-        <v>0.05862800830537804</v>
+        <v>0.2030924971687972</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>138.884083</v>
       </c>
       <c r="O15">
-        <v>0.1658370397602197</v>
+        <v>0.164954193449581</v>
       </c>
       <c r="P15">
-        <v>0.1658370397602197</v>
+        <v>0.164954193449581</v>
       </c>
       <c r="Q15">
-        <v>30.83561507555678</v>
+        <v>73.62683496269689</v>
       </c>
       <c r="R15">
-        <v>277.5205356800111</v>
+        <v>662.641514664272</v>
       </c>
       <c r="S15">
-        <v>0.009722695344401466</v>
+        <v>0.03350095906614026</v>
       </c>
       <c r="T15">
-        <v>0.009722695344401466</v>
+        <v>0.03350095906614026</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.6660723333333334</v>
+        <v>1.590394666666667</v>
       </c>
       <c r="H16">
-        <v>1.998217</v>
+        <v>4.771184</v>
       </c>
       <c r="I16">
-        <v>0.05862800830537804</v>
+        <v>0.2030924971687972</v>
       </c>
       <c r="J16">
-        <v>0.05862800830537804</v>
+        <v>0.2030924971687972</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>7.105616</v>
+        <v>8.515309999999999</v>
       </c>
       <c r="N16">
-        <v>21.316848</v>
+        <v>25.54593</v>
       </c>
       <c r="O16">
-        <v>0.02545376614063513</v>
+        <v>0.03034118948727519</v>
       </c>
       <c r="P16">
-        <v>0.02545376614063513</v>
+        <v>0.03034118948727519</v>
       </c>
       <c r="Q16">
-        <v>4.732854228890667</v>
+        <v>13.54270360901333</v>
       </c>
       <c r="R16">
-        <v>42.595688060016</v>
+        <v>121.88433248112</v>
       </c>
       <c r="S16">
-        <v>0.001492303612696307</v>
+        <v>0.006162067940042375</v>
       </c>
       <c r="T16">
-        <v>0.001492303612696307</v>
+        <v>0.006162067940042375</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.6660723333333334</v>
+        <v>1.590394666666667</v>
       </c>
       <c r="H17">
-        <v>1.998217</v>
+        <v>4.771184</v>
       </c>
       <c r="I17">
-        <v>0.05862800830537804</v>
+        <v>0.2030924971687972</v>
       </c>
       <c r="J17">
-        <v>0.05862800830537804</v>
+        <v>0.2030924971687972</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.978882</v>
+        <v>7.120231</v>
       </c>
       <c r="N17">
-        <v>20.936646</v>
+        <v>21.360693</v>
       </c>
       <c r="O17">
-        <v>0.02499977909741928</v>
+        <v>0.02537033624896462</v>
       </c>
       <c r="P17">
-        <v>0.02499977909741927</v>
+        <v>0.02537033624896462</v>
       </c>
       <c r="Q17">
-        <v>4.648440217798</v>
+        <v>11.32397740783467</v>
       </c>
       <c r="R17">
-        <v>41.835961960182</v>
+        <v>101.915796670512</v>
       </c>
       <c r="S17">
-        <v>0.001465687256556114</v>
+        <v>0.00515252494281428</v>
       </c>
       <c r="T17">
-        <v>0.001465687256556113</v>
+        <v>0.005152524942814279</v>
       </c>
     </row>
   </sheetData>
